--- a/teaching/traditional_assets/database/data/thailand/thailand_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_insurance_prop_cas.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0336</v>
+        <v>0.0495</v>
       </c>
       <c r="E2">
-        <v>-0.159</v>
+        <v>-0.06955</v>
       </c>
       <c r="G2">
-        <v>0.1253859402074052</v>
+        <v>0.1134024523695951</v>
       </c>
       <c r="H2">
-        <v>0.1253859402074052</v>
+        <v>0.1134024523695951</v>
       </c>
       <c r="I2">
-        <v>0.1129710902671578</v>
+        <v>0.124895517583574</v>
       </c>
       <c r="J2">
-        <v>0.1009184956439651</v>
+        <v>0.1040304254268666</v>
       </c>
       <c r="K2">
-        <v>183.683</v>
+        <v>214.194</v>
       </c>
       <c r="L2">
-        <v>0.09615551728289717</v>
+        <v>0.1001683548921126</v>
       </c>
       <c r="M2">
-        <v>110.906</v>
+        <v>122.368</v>
       </c>
       <c r="N2">
-        <v>0.04310460755164306</v>
+        <v>0.0477869332604366</v>
       </c>
       <c r="O2">
-        <v>0.6037902255516298</v>
+        <v>0.5712951810041363</v>
       </c>
       <c r="P2">
-        <v>110.906</v>
+        <v>122.368</v>
       </c>
       <c r="Q2">
-        <v>0.04310460755164306</v>
+        <v>0.0477869332604366</v>
       </c>
       <c r="R2">
-        <v>0.6037902255516298</v>
+        <v>0.5712951810041363</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>383.861</v>
+        <v>314.43</v>
       </c>
       <c r="V2">
-        <v>0.1491910064323053</v>
+        <v>0.1227906431835045</v>
       </c>
       <c r="W2">
-        <v>0.06687309052510154</v>
+        <v>0.03511164855552611</v>
       </c>
       <c r="X2">
-        <v>0.05349978846910591</v>
+        <v>0.05117449802496495</v>
       </c>
       <c r="Y2">
-        <v>0.01337330205599563</v>
+        <v>-0.01606284946943884</v>
       </c>
       <c r="Z2">
-        <v>0.9585837076398166</v>
+        <v>1.040936879975423</v>
       </c>
       <c r="AA2">
-        <v>0.07690896979575682</v>
+        <v>0.04325877436832867</v>
       </c>
       <c r="AB2">
-        <v>0.05331205724430466</v>
+        <v>0.05055682878506339</v>
       </c>
       <c r="AC2">
-        <v>0.02358044559788123</v>
+        <v>-0.00712542116552559</v>
       </c>
       <c r="AD2">
-        <v>5.326</v>
+        <v>42.658</v>
       </c>
       <c r="AE2">
-        <v>18.5335769767822</v>
+        <v>21.0995946517016</v>
       </c>
       <c r="AF2">
-        <v>23.8595769767822</v>
+        <v>63.7575946517016</v>
       </c>
       <c r="AG2">
-        <v>-360.0014230232178</v>
+        <v>-250.6724053482984</v>
       </c>
       <c r="AH2">
-        <v>0.009188034882619168</v>
+        <v>0.02429362729336194</v>
       </c>
       <c r="AI2">
-        <v>0.009741268468342335</v>
+        <v>0.02787305478030212</v>
       </c>
       <c r="AJ2">
-        <v>-0.162679524851424</v>
+        <v>-0.1085148965010931</v>
       </c>
       <c r="AK2">
-        <v>-0.1742952795486971</v>
+        <v>-0.1270515514199348</v>
       </c>
       <c r="AL2">
-        <v>0.09</v>
+        <v>1.233</v>
       </c>
       <c r="AM2">
-        <v>0.09</v>
+        <v>1.233</v>
       </c>
       <c r="AN2">
-        <v>0.01588186705869372</v>
+        <v>0.1480589348003401</v>
       </c>
       <c r="AO2">
-        <v>2331.466666666667</v>
+        <v>212.1459854014599</v>
       </c>
       <c r="AP2">
-        <v>-1.073506335222551</v>
+        <v>-0.8700428833913486</v>
       </c>
       <c r="AQ2">
-        <v>2331.466666666667</v>
+        <v>212.1459854014599</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.014</v>
+        <v>0.0507</v>
       </c>
       <c r="E3">
-        <v>0.04650000000000001</v>
+        <v>0.0707</v>
       </c>
       <c r="G3">
-        <v>0.1856488549618321</v>
+        <v>0.1999495077000757</v>
       </c>
       <c r="H3">
-        <v>0.1856488549618321</v>
+        <v>0.1999495077000757</v>
       </c>
       <c r="I3">
-        <v>0.2130485070496185</v>
+        <v>0.2077982473684208</v>
       </c>
       <c r="J3">
-        <v>0.1761624968738636</v>
+        <v>0.1695675310190367</v>
       </c>
       <c r="K3">
-        <v>55.5</v>
+        <v>65.2</v>
       </c>
       <c r="L3">
-        <v>0.1694656488549618</v>
+        <v>0.1646048977530926</v>
       </c>
       <c r="M3">
-        <v>28.4</v>
+        <v>31.4</v>
       </c>
       <c r="N3">
-        <v>0.05858085808580858</v>
+        <v>0.05872451842154478</v>
       </c>
       <c r="O3">
-        <v>0.5117117117117117</v>
+        <v>0.4815950920245398</v>
       </c>
       <c r="P3">
-        <v>28.4</v>
+        <v>31.4</v>
       </c>
       <c r="Q3">
-        <v>0.05858085808580858</v>
+        <v>0.05872451842154478</v>
       </c>
       <c r="R3">
-        <v>0.5117117117117117</v>
+        <v>0.4815950920245398</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,55 +773,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>72</v>
+        <v>61.1</v>
       </c>
       <c r="V3">
-        <v>0.1485148514851485</v>
+        <v>0.1142696839349168</v>
       </c>
       <c r="W3">
-        <v>0.2309612983770287</v>
+        <v>0.2441947565543071</v>
       </c>
       <c r="X3">
-        <v>0.0535568152161883</v>
+        <v>0.05096818806904858</v>
       </c>
       <c r="Y3">
-        <v>0.1774044831608404</v>
+        <v>0.1932265684852585</v>
       </c>
       <c r="Z3">
-        <v>1.790272259279817</v>
+        <v>1.958413297945332</v>
       </c>
       <c r="AA3">
-        <v>0.3153788312787455</v>
+        <v>0.3320833076474392</v>
       </c>
       <c r="AB3">
-        <v>0.05331937201545081</v>
+        <v>0.05050220834542706</v>
       </c>
       <c r="AC3">
-        <v>0.2620594592632947</v>
+        <v>0.2815810993020121</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="AE3">
-        <v>5.733069706249776</v>
+        <v>7.25557108684264</v>
       </c>
       <c r="AF3">
-        <v>5.733069706249776</v>
+        <v>10.44557108684264</v>
       </c>
       <c r="AG3">
-        <v>-66.26693029375022</v>
+        <v>-50.65442891315736</v>
       </c>
       <c r="AH3">
-        <v>0.01168742753609448</v>
+        <v>0.01916106750352493</v>
       </c>
       <c r="AI3">
-        <v>0.0210208087798984</v>
+        <v>0.04172460907334832</v>
       </c>
       <c r="AJ3">
-        <v>-0.1583314081734571</v>
+        <v>-0.1046480578252609</v>
       </c>
       <c r="AK3">
-        <v>-0.3301246296423624</v>
+        <v>-0.2676650693712278</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.03664139673788192</v>
       </c>
       <c r="AP3">
-        <v>-0.8856847138966882</v>
+        <v>-0.5818335505761241</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syn Mun Kong Insurance Public Company Limited (SET:SMK)</t>
+          <t>Muang Thai Insurance Public Company Limited (SET:MTI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,46 +853,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0333</v>
+        <v>0.0483</v>
       </c>
       <c r="E4">
-        <v>-0.08410000000000001</v>
+        <v>-0.0706</v>
       </c>
       <c r="G4">
-        <v>0.08253094910591471</v>
+        <v>0.06589147286821705</v>
       </c>
       <c r="H4">
-        <v>0.08253094910591471</v>
+        <v>0.06589147286821705</v>
       </c>
       <c r="I4">
-        <v>0.06720825890922814</v>
+        <v>0.08773016252057875</v>
       </c>
       <c r="J4">
-        <v>0.05492439646153308</v>
+        <v>0.06852437018499259</v>
       </c>
       <c r="K4">
-        <v>19.4</v>
+        <v>20.2</v>
       </c>
       <c r="L4">
-        <v>0.05337001375515818</v>
+        <v>0.0652454780361757</v>
       </c>
       <c r="M4">
-        <v>13.3</v>
+        <v>5.42</v>
       </c>
       <c r="N4">
-        <v>0.0669350780070458</v>
+        <v>0.03226190476190476</v>
       </c>
       <c r="O4">
-        <v>0.6855670103092785</v>
+        <v>0.2683168316831683</v>
       </c>
       <c r="P4">
-        <v>13.3</v>
+        <v>5.42</v>
       </c>
       <c r="Q4">
-        <v>0.0669350780070458</v>
+        <v>0.03226190476190476</v>
       </c>
       <c r="R4">
-        <v>0.6855670103092785</v>
+        <v>0.2683168316831683</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,67 +901,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>29.8</v>
+        <v>6.08</v>
       </c>
       <c r="V4">
-        <v>0.1499748364368395</v>
+        <v>0.03619047619047619</v>
       </c>
       <c r="W4">
-        <v>0.1023746701846966</v>
+        <v>0.1117256637168142</v>
       </c>
       <c r="X4">
-        <v>0.05347517753271144</v>
+        <v>0.05141592232507972</v>
       </c>
       <c r="Y4">
-        <v>0.04889949265198512</v>
+        <v>0.06030974139173444</v>
       </c>
       <c r="Z4">
-        <v>2.08006696259401</v>
+        <v>2.065436050619609</v>
       </c>
       <c r="AA4">
-        <v>0.1142464225200503</v>
+        <v>0.1415327045260872</v>
       </c>
       <c r="AB4">
-        <v>0.05329812407859818</v>
+        <v>0.05062062298124272</v>
       </c>
       <c r="AC4">
-        <v>0.06094829844145216</v>
+        <v>0.09091208154484447</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AE4">
-        <v>1.753989432477855</v>
+        <v>2.793708418144091</v>
       </c>
       <c r="AF4">
-        <v>1.753989432477855</v>
+        <v>5.573708418144092</v>
       </c>
       <c r="AG4">
-        <v>-28.04601056752215</v>
+        <v>-0.5062915818559084</v>
       </c>
       <c r="AH4">
-        <v>0.008750084931927382</v>
+        <v>0.03211147856976626</v>
       </c>
       <c r="AI4">
-        <v>0.008092074508387535</v>
+        <v>0.03415812799854418</v>
       </c>
       <c r="AJ4">
-        <v>-0.1643443007736952</v>
+        <v>-0.003022749849158294</v>
       </c>
       <c r="AK4">
-        <v>-0.1500155768414427</v>
+        <v>-0.003222863518558535</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.09291443850267378</v>
+      </c>
+      <c r="AO4">
+        <v>454.3859649122807</v>
       </c>
       <c r="AP4">
-        <v>-1.067159186009746</v>
+        <v>-0.01692151008876699</v>
+      </c>
+      <c r="AQ4">
+        <v>454.3859649122807</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Allianz Ayudhya Capital Public Company Limited (SET:AYUD)</t>
+          <t>Syn Mun Kong Insurance Public Company Limited (SET:SMK)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -981,46 +987,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0013</v>
+        <v>0.0116</v>
       </c>
       <c r="E5">
-        <v>-0.184</v>
+        <v>-0.0474</v>
       </c>
       <c r="G5">
-        <v>0.1896296296296296</v>
+        <v>0.08717494089834515</v>
       </c>
       <c r="H5">
-        <v>0.1896296296296296</v>
+        <v>0.08717494089834515</v>
       </c>
       <c r="I5">
-        <v>0.1739176402332555</v>
+        <v>0.09075941367829786</v>
       </c>
       <c r="J5">
-        <v>0.1654899131734942</v>
+        <v>0.07424120038884766</v>
       </c>
       <c r="K5">
-        <v>21.6</v>
+        <v>24.5</v>
       </c>
       <c r="L5">
-        <v>0.16</v>
+        <v>0.07239952718676124</v>
       </c>
       <c r="M5">
-        <v>9.43</v>
+        <v>12.9</v>
       </c>
       <c r="N5">
-        <v>0.01881109116297626</v>
+        <v>0.05029239766081871</v>
       </c>
       <c r="O5">
-        <v>0.4365740740740741</v>
+        <v>0.5265306122448979</v>
       </c>
       <c r="P5">
-        <v>9.43</v>
+        <v>12.9</v>
       </c>
       <c r="Q5">
-        <v>0.01881109116297626</v>
+        <v>0.05029239766081871</v>
       </c>
       <c r="R5">
-        <v>0.4365740740740741</v>
+        <v>0.5265306122448979</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1029,67 +1035,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>234.8</v>
+        <v>30.9</v>
       </c>
       <c r="V5">
-        <v>0.4683822062637144</v>
+        <v>0.1204678362573099</v>
       </c>
       <c r="W5">
-        <v>0.0773916159082766</v>
+        <v>0.113953488372093</v>
       </c>
       <c r="X5">
-        <v>0.05330302525300916</v>
+        <v>0.05078958805599068</v>
       </c>
       <c r="Y5">
-        <v>0.02408859065526744</v>
+        <v>0.06316390031610235</v>
       </c>
       <c r="Z5">
-        <v>0.5750661714395988</v>
+        <v>1.810254203652306</v>
       </c>
       <c r="AA5">
-        <v>0.09516765078055293</v>
+        <v>0.1343954450881046</v>
       </c>
       <c r="AB5">
-        <v>0.05326489360186074</v>
+        <v>0.05045408419684817</v>
       </c>
       <c r="AC5">
-        <v>0.04190275717869219</v>
+        <v>0.08394136089125648</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AE5">
-        <v>1.255592842552549</v>
+        <v>1.735072056320036</v>
       </c>
       <c r="AF5">
-        <v>1.255592842552549</v>
+        <v>3.615072056320035</v>
       </c>
       <c r="AG5">
-        <v>-233.5444071574475</v>
+        <v>-27.28492794367996</v>
       </c>
       <c r="AH5">
-        <v>0.002498415817940997</v>
+        <v>0.01389797226181996</v>
       </c>
       <c r="AI5">
-        <v>0.002066970585746155</v>
+        <v>0.0168052941235729</v>
       </c>
       <c r="AJ5">
-        <v>-0.8722297998637055</v>
+        <v>-0.1190363604753523</v>
       </c>
       <c r="AK5">
-        <v>-0.6267030782391082</v>
+        <v>-0.1481145252617449</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.05756276791181873</v>
+      </c>
+      <c r="AO5">
+        <v>789.4736842105264</v>
       </c>
       <c r="AP5">
-        <v>-9.40573528624436</v>
+        <v>-0.8354233908046528</v>
+      </c>
+      <c r="AQ5">
+        <v>789.4736842105264</v>
       </c>
     </row>
     <row r="6">
@@ -1109,46 +1121,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.04480000000000001</v>
+        <v>0.0469</v>
       </c>
       <c r="E6">
-        <v>-0.159</v>
+        <v>-0.0342</v>
       </c>
       <c r="G6">
-        <v>0.05710144927536231</v>
+        <v>0.05267727930535456</v>
       </c>
       <c r="H6">
-        <v>0.05710144927536231</v>
+        <v>0.05267727930535456</v>
       </c>
       <c r="I6">
-        <v>0.05443098613513006</v>
+        <v>0.08608875354320819</v>
       </c>
       <c r="J6">
-        <v>0.04563003232060481</v>
+        <v>0.0698057668835471</v>
       </c>
       <c r="K6">
-        <v>2.98</v>
+        <v>4.63</v>
       </c>
       <c r="L6">
-        <v>0.04318840579710145</v>
+        <v>0.06700434153400869</v>
       </c>
       <c r="M6">
-        <v>1.79</v>
+        <v>4.27</v>
       </c>
       <c r="N6">
-        <v>0.06438848920863309</v>
+        <v>0.1244897959183673</v>
       </c>
       <c r="O6">
-        <v>0.6006711409395973</v>
+        <v>0.9222462203023757</v>
       </c>
       <c r="P6">
-        <v>1.79</v>
+        <v>4.27</v>
       </c>
       <c r="Q6">
-        <v>0.06438848920863309</v>
+        <v>0.1244897959183673</v>
       </c>
       <c r="R6">
-        <v>0.6006711409395973</v>
+        <v>0.9222462203023757</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1157,67 +1169,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>3.06</v>
+        <v>19.8</v>
       </c>
       <c r="V6">
-        <v>0.1100719424460432</v>
+        <v>0.5772594752186589</v>
       </c>
       <c r="W6">
-        <v>0.07250608272506083</v>
+        <v>0.1049886621315193</v>
       </c>
       <c r="X6">
-        <v>0.0535005544439898</v>
+        <v>0.05067085294425687</v>
       </c>
       <c r="Y6">
-        <v>0.01900552828107104</v>
+        <v>0.05431780918726239</v>
       </c>
       <c r="Z6">
-        <v>1.938130940120959</v>
+        <v>1.671450593266615</v>
       </c>
       <c r="AA6">
-        <v>0.08843697743928353</v>
+        <v>0.1166768904709359</v>
       </c>
       <c r="AB6">
-        <v>0.05330474247315849</v>
+        <v>0.05042180394398384</v>
       </c>
       <c r="AC6">
-        <v>0.03513223496612503</v>
+        <v>0.06625508652695203</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="AE6">
-        <v>0.271309783380127</v>
+        <v>0.3013356508215735</v>
       </c>
       <c r="AF6">
-        <v>0.271309783380127</v>
+        <v>0.3593356508215735</v>
       </c>
       <c r="AG6">
-        <v>-2.788690216619873</v>
+        <v>-19.44066434917843</v>
       </c>
       <c r="AH6">
-        <v>0.009665020459457094</v>
+        <v>0.01036764392836987</v>
       </c>
       <c r="AI6">
-        <v>0.006114531770746821</v>
+        <v>0.008155721041038278</v>
       </c>
       <c r="AJ6">
-        <v>-0.1114971683119507</v>
+        <v>-1.30831315787012</v>
       </c>
       <c r="AK6">
-        <v>-0.06750427985078764</v>
+        <v>-0.8013683733552712</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.009193216040576954</v>
+      </c>
+      <c r="AO6">
+        <v>2865</v>
       </c>
       <c r="AP6">
-        <v>-0.6719735461734633</v>
+        <v>-3.081417712661028</v>
+      </c>
+      <c r="AQ6">
+        <v>2865</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1246,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muang Thai Insurance Public Company Limited (SET:MTI)</t>
+          <t>Bangkok Insurance Public Company Limited (SET:BKI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1237,46 +1255,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0554</v>
+        <v>0.0557</v>
       </c>
       <c r="E7">
-        <v>-0.169</v>
+        <v>0.0551</v>
       </c>
       <c r="G7">
-        <v>0.0602655771195097</v>
+        <v>0.1810699588477366</v>
       </c>
       <c r="H7">
-        <v>0.0602655771195097</v>
+        <v>0.1810699588477366</v>
       </c>
       <c r="I7">
-        <v>0.05354634639637262</v>
+        <v>0.1992737434524836</v>
       </c>
       <c r="J7">
-        <v>0.0428370771170981</v>
+        <v>0.1680752297716875</v>
       </c>
       <c r="K7">
-        <v>11.3</v>
+        <v>93.2</v>
       </c>
       <c r="L7">
-        <v>0.03847463398025196</v>
+        <v>0.1667561281087851</v>
       </c>
       <c r="M7">
-        <v>5.44</v>
+        <v>46.2</v>
       </c>
       <c r="N7">
-        <v>0.03249701314217444</v>
+        <v>0.04719583205638983</v>
       </c>
       <c r="O7">
-        <v>0.4814159292035398</v>
+        <v>0.4957081545064378</v>
       </c>
       <c r="P7">
-        <v>5.44</v>
+        <v>46.2</v>
       </c>
       <c r="Q7">
-        <v>0.03249701314217444</v>
+        <v>0.04719583205638983</v>
       </c>
       <c r="R7">
-        <v>0.4814159292035398</v>
+        <v>0.4957081545064378</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1285,67 +1303,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>13.5</v>
+        <v>8.06</v>
       </c>
       <c r="V7">
-        <v>0.08064516129032258</v>
+        <v>0.008233731739707836</v>
       </c>
       <c r="W7">
-        <v>0.06750298685782558</v>
+        <v>0.09527703946023308</v>
       </c>
       <c r="X7">
-        <v>0.05375843451013347</v>
+        <v>0.05138080798088131</v>
       </c>
       <c r="Y7">
-        <v>0.0137445523476921</v>
+        <v>0.04389623147935177</v>
       </c>
       <c r="Z7">
-        <v>2.048157285026883</v>
+        <v>0.5765841091258802</v>
       </c>
       <c r="AA7">
-        <v>0.08773707156664283</v>
+        <v>0.09690950662403608</v>
       </c>
       <c r="AB7">
-        <v>0.05337131209346454</v>
+        <v>0.05061144922469973</v>
       </c>
       <c r="AC7">
-        <v>0.03436575947317829</v>
+        <v>0.04629805739933635</v>
       </c>
       <c r="AD7">
-        <v>0.402</v>
+        <v>25.4</v>
       </c>
       <c r="AE7">
-        <v>2.817190316926808</v>
+        <v>6.029523922034588</v>
       </c>
       <c r="AF7">
-        <v>3.219190316926808</v>
+        <v>31.42952392203459</v>
       </c>
       <c r="AG7">
-        <v>-10.28080968307319</v>
+        <v>23.36952392203459</v>
       </c>
       <c r="AH7">
-        <v>0.01886769191054729</v>
+        <v>0.03110819111771295</v>
       </c>
       <c r="AI7">
-        <v>0.01749377503173751</v>
+        <v>0.03519033139114794</v>
       </c>
       <c r="AJ7">
-        <v>-0.06543318904798109</v>
+        <v>0.02331660632619662</v>
       </c>
       <c r="AK7">
-        <v>-0.06029121803807119</v>
+        <v>0.02640416745848002</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.952</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.952</v>
       </c>
       <c r="AN7">
-        <v>0.02162452931683701</v>
+        <v>0.2143821742066171</v>
+      </c>
+      <c r="AO7">
+        <v>117.1218487394958</v>
       </c>
       <c r="AP7">
-        <v>-0.5530290308269603</v>
+        <v>0.1972444625424931</v>
+      </c>
+      <c r="AQ7">
+        <v>117.1218487394958</v>
       </c>
     </row>
     <row r="8">
@@ -1356,7 +1380,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bangkok Insurance Public Company Limited (SET:BKI)</t>
+          <t>Charan Insurance Public Company Limited (SET:CHARAN)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1365,46 +1389,46 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0339</v>
+        <v>0.0515</v>
       </c>
       <c r="E8">
-        <v>0.00459</v>
+        <v>-0.06849999999999999</v>
       </c>
       <c r="G8">
-        <v>0.1883363291392051</v>
+        <v>-0.1203883495145631</v>
       </c>
       <c r="H8">
-        <v>0.1883363291392051</v>
+        <v>-0.1203883495145631</v>
       </c>
       <c r="I8">
-        <v>0.1640755295700465</v>
+        <v>0.1113529264521101</v>
       </c>
       <c r="J8">
-        <v>0.1455946041859112</v>
+        <v>0.08537057694661776</v>
       </c>
       <c r="K8">
-        <v>73</v>
+        <v>0.828</v>
       </c>
       <c r="L8">
-        <v>0.1457958857599361</v>
+        <v>0.0803883495145631</v>
       </c>
       <c r="M8">
-        <v>48.7</v>
+        <v>0.19</v>
       </c>
       <c r="N8">
-        <v>0.04644287621590693</v>
+        <v>0.01862745098039216</v>
       </c>
       <c r="O8">
-        <v>0.667123287671233</v>
+        <v>0.2294685990338164</v>
       </c>
       <c r="P8">
-        <v>48.7</v>
+        <v>0.19</v>
       </c>
       <c r="Q8">
-        <v>0.04644287621590693</v>
+        <v>0.01862745098039216</v>
       </c>
       <c r="R8">
-        <v>0.667123287671233</v>
+        <v>0.2294685990338164</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1413,73 +1437,67 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>16.3</v>
+        <v>1.59</v>
       </c>
       <c r="V8">
-        <v>0.01554453557123784</v>
+        <v>0.1558823529411765</v>
       </c>
       <c r="W8">
-        <v>0.06624319419237749</v>
+        <v>0.04704545454545454</v>
       </c>
       <c r="X8">
-        <v>0.05342780476384508</v>
+        <v>0.05058547319020402</v>
       </c>
       <c r="Y8">
-        <v>0.01281538942853241</v>
+        <v>-0.003540018644749489</v>
       </c>
       <c r="Z8">
-        <v>0.4538689355581575</v>
+        <v>0.6857375248830928</v>
       </c>
       <c r="AA8">
-        <v>0.0660808680248708</v>
+        <v>0.05854180813321529</v>
       </c>
       <c r="AB8">
-        <v>0.05328573630228663</v>
+        <v>0.05039844871295508</v>
       </c>
       <c r="AC8">
-        <v>0.01279513172258417</v>
+        <v>0.008143359420260211</v>
       </c>
       <c r="AD8">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>6.031911721388704</v>
+        <v>0.08032428771632907</v>
       </c>
       <c r="AF8">
-        <v>7.431911721388705</v>
+        <v>0.08032428771632907</v>
       </c>
       <c r="AG8">
-        <v>-8.868088278611296</v>
+        <v>-1.509675712283671</v>
       </c>
       <c r="AH8">
-        <v>0.007037582518954649</v>
+        <v>0.007813400187414934</v>
       </c>
       <c r="AI8">
-        <v>0.007540250709221662</v>
+        <v>0.004815511157386863</v>
       </c>
       <c r="AJ8">
-        <v>-0.008529206595120483</v>
+        <v>-0.1737191458341296</v>
       </c>
       <c r="AK8">
-        <v>-0.009148660197169095</v>
+        <v>-0.1000426288726321</v>
       </c>
       <c r="AL8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.01535778145876984</v>
-      </c>
-      <c r="AO8">
-        <v>915.5555555555557</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>-0.09728154409999337</v>
-      </c>
-      <c r="AQ8">
-        <v>915.5555555555557</v>
+        <v>-1.27614176862525</v>
       </c>
     </row>
     <row r="9">
@@ -1499,46 +1517,46 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0688</v>
+        <v>0.105</v>
       </c>
       <c r="E9">
-        <v>-0.196</v>
+        <v>-0.166</v>
       </c>
       <c r="G9">
-        <v>0.04106400665004157</v>
+        <v>0.03980938416422287</v>
       </c>
       <c r="H9">
-        <v>0.04106400665004157</v>
+        <v>0.03980938416422287</v>
       </c>
       <c r="I9">
-        <v>0.01844658418556939</v>
+        <v>0.007928730917631129</v>
       </c>
       <c r="J9">
-        <v>0.01497527243428497</v>
+        <v>0.007387442556908235</v>
       </c>
       <c r="K9">
-        <v>1.82</v>
+        <v>0.987</v>
       </c>
       <c r="L9">
-        <v>0.01512884455527847</v>
+        <v>0.007236070381231671</v>
       </c>
       <c r="M9">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="N9">
-        <v>0.04658823529411765</v>
+        <v>0.04752475247524753</v>
       </c>
       <c r="O9">
-        <v>1.087912087912088</v>
+        <v>1.945288753799392</v>
       </c>
       <c r="P9">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Q9">
-        <v>0.04658823529411765</v>
+        <v>0.04752475247524753</v>
       </c>
       <c r="R9">
-        <v>1.087912087912088</v>
+        <v>1.945288753799392</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1547,67 +1565,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>6.41</v>
+        <v>17.6</v>
       </c>
       <c r="V9">
-        <v>0.1508235294117647</v>
+        <v>0.4356435643564357</v>
       </c>
       <c r="W9">
-        <v>0.04516129032258065</v>
+        <v>0.02300699300699301</v>
       </c>
       <c r="X9">
-        <v>0.05330169972838077</v>
+        <v>0.05048185630789469</v>
       </c>
       <c r="Y9">
-        <v>-0.008140409405800117</v>
+        <v>-0.02747486330090168</v>
       </c>
       <c r="Z9">
-        <v>3.654271348522363</v>
+        <v>3.786931727446198</v>
       </c>
       <c r="AA9">
-        <v>0.05472370899292429</v>
+        <v>0.02797574060344206</v>
       </c>
       <c r="AB9">
-        <v>0.05325255078931903</v>
+        <v>0.05036994235475345</v>
       </c>
       <c r="AC9">
-        <v>0.001471158203605265</v>
+        <v>-0.02239420175131139</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="AE9">
-        <v>0.1043796123800141</v>
+        <v>0.0776055141755695</v>
       </c>
       <c r="AF9">
-        <v>0.1043796123800141</v>
+        <v>0.1906055141755695</v>
       </c>
       <c r="AG9">
-        <v>-6.305620387619986</v>
+        <v>-17.40939448582443</v>
       </c>
       <c r="AH9">
-        <v>0.002449973766304611</v>
+        <v>0.004695803665924713</v>
       </c>
       <c r="AI9">
-        <v>0.002404817516392802</v>
+        <v>0.004475294771569511</v>
       </c>
       <c r="AJ9">
-        <v>-0.1742154570723239</v>
+        <v>-0.7572394939789704</v>
       </c>
       <c r="AK9">
-        <v>-0.1704480641029547</v>
+        <v>-0.6966375615008288</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>0.05833763551884358</v>
+      </c>
+      <c r="AO9">
+        <v>350</v>
       </c>
       <c r="AP9">
-        <v>-2.067416520531143</v>
+        <v>-8.987813363874256</v>
+      </c>
+      <c r="AQ9">
+        <v>350</v>
       </c>
     </row>
     <row r="10">
@@ -1627,43 +1651,46 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.00961</v>
+        <v>-0.00218</v>
+      </c>
+      <c r="E10">
+        <v>-0.126</v>
       </c>
       <c r="G10">
-        <v>0.05092707045735476</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="H10">
-        <v>0.05092707045735476</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="I10">
-        <v>-0.002488664476182641</v>
+        <v>0.02456247999844477</v>
       </c>
       <c r="J10">
-        <v>-0.002488664476182641</v>
+        <v>0.02138143750684291</v>
       </c>
       <c r="K10">
-        <v>-0.169</v>
+        <v>1.59</v>
       </c>
       <c r="L10">
-        <v>-0.002088998763906057</v>
+        <v>0.01920289855072464</v>
       </c>
       <c r="M10">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="N10">
-        <v>0.02667731629392971</v>
+        <v>0.02504378283712784</v>
       </c>
       <c r="O10">
-        <v>-9.881656804733726</v>
+        <v>0.8993710691823898</v>
       </c>
       <c r="P10">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="Q10">
-        <v>0.02667731629392971</v>
+        <v>0.02504378283712784</v>
       </c>
       <c r="R10">
-        <v>-9.881656804733726</v>
+        <v>0.8993710691823898</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1672,67 +1699,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>4.38</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="V10">
-        <v>0.06996805111821086</v>
+        <v>0.1495621716287215</v>
       </c>
       <c r="W10">
-        <v>-0.002507418397626113</v>
+        <v>0.02317784256559767</v>
       </c>
       <c r="X10">
-        <v>0.05364831988109352</v>
+        <v>0.05168708048349251</v>
       </c>
       <c r="Y10">
-        <v>-0.05615573827871963</v>
+        <v>-0.02850923791789484</v>
       </c>
       <c r="Z10">
-        <v>1.271319653822446</v>
+        <v>1.267603047352261</v>
       </c>
       <c r="AA10">
-        <v>-0.003163888060340735</v>
+        <v>0.027103175340446</v>
       </c>
       <c r="AB10">
-        <v>0.05334303886234822</v>
+        <v>0.05103397479573759</v>
       </c>
       <c r="AC10">
-        <v>-0.05650692692268896</v>
+        <v>-0.02393079945529159</v>
       </c>
       <c r="AD10">
-        <v>0.584</v>
+        <v>1.85</v>
       </c>
       <c r="AE10">
-        <v>0.3666647806158787</v>
+        <v>0.5161332806438637</v>
       </c>
       <c r="AF10">
-        <v>0.9506647806158787</v>
+        <v>2.366133280643864</v>
       </c>
       <c r="AG10">
-        <v>-3.429335219384121</v>
+        <v>-6.173866719356136</v>
       </c>
       <c r="AH10">
-        <v>0.01495916343121951</v>
+        <v>0.03978959367472504</v>
       </c>
       <c r="AI10">
-        <v>0.01366866562116361</v>
+        <v>0.03512348364699327</v>
       </c>
       <c r="AJ10">
-        <v>-0.05795667890666593</v>
+        <v>-0.1212317983250991</v>
       </c>
       <c r="AK10">
-        <v>-0.05262084146184941</v>
+        <v>-0.1049510884882108</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="AN10">
-        <v>0.833095577746077</v>
+        <v>0.6834133727373476</v>
+      </c>
+      <c r="AO10">
+        <v>35.84905660377358</v>
       </c>
       <c r="AP10">
-        <v>-4.892061653900316</v>
+        <v>-2.280704366219481</v>
+      </c>
+      <c r="AQ10">
+        <v>35.84905660377358</v>
       </c>
     </row>
     <row r="11">
@@ -1743,7 +1776,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Charan Insurance Public Company Limited (SET:CHARAN)</t>
+          <t>Allianz Ayudhya Capital Public Company Limited (SET:AYUD)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1752,43 +1785,46 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0476</v>
+        <v>0.141</v>
+      </c>
+      <c r="E11">
+        <v>-0.21</v>
       </c>
       <c r="G11">
-        <v>0.02100313479623825</v>
+        <v>0.04476031215161649</v>
       </c>
       <c r="H11">
-        <v>0.02100313479623825</v>
+        <v>0.04476031215161649</v>
       </c>
       <c r="I11">
-        <v>-0.1220958819446541</v>
+        <v>0.05417812313814664</v>
       </c>
       <c r="J11">
-        <v>-0.1220958819446541</v>
+        <v>0.04643000585295123</v>
       </c>
       <c r="K11">
-        <v>-0.9409999999999999</v>
+        <v>7.92</v>
       </c>
       <c r="L11">
-        <v>-0.09832810867293625</v>
+        <v>0.04414715719063545</v>
       </c>
       <c r="M11">
-        <v>0.196</v>
+        <v>18.4</v>
       </c>
       <c r="N11">
-        <v>0.02630872483221476</v>
+        <v>0.04204753199268738</v>
       </c>
       <c r="O11">
-        <v>-0.2082890541976621</v>
+        <v>2.323232323232323</v>
       </c>
       <c r="P11">
-        <v>0.196</v>
+        <v>18.4</v>
       </c>
       <c r="Q11">
-        <v>0.02630872483221476</v>
+        <v>0.04204753199268738</v>
       </c>
       <c r="R11">
-        <v>-0.2082890541976621</v>
+        <v>2.323232323232323</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1797,67 +1833,73 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2.66</v>
+        <v>147.5</v>
       </c>
       <c r="V11">
-        <v>0.3570469798657718</v>
+        <v>0.3370658135283364</v>
       </c>
       <c r="W11">
-        <v>-0.0517032967032967</v>
+        <v>0.01306499505113824</v>
       </c>
       <c r="X11">
-        <v>0.05349902249422203</v>
+        <v>0.05076631858745856</v>
       </c>
       <c r="Y11">
-        <v>-0.1052023191975187</v>
+        <v>-0.03770132353632032</v>
       </c>
       <c r="Z11">
-        <v>0.5469419047552899</v>
+        <v>0.5026234710206701</v>
       </c>
       <c r="AA11">
-        <v>-0.06677935423358614</v>
+        <v>0.02333681070132038</v>
       </c>
       <c r="AB11">
-        <v>0.05337968439302496</v>
+        <v>0.05044777613532124</v>
       </c>
       <c r="AC11">
-        <v>-0.1201590386266111</v>
+        <v>-0.02711096543400086</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>5.03</v>
       </c>
       <c r="AE11">
-        <v>0.07228795105170004</v>
+        <v>0.82722354508246</v>
       </c>
       <c r="AF11">
-        <v>0.07228795105170004</v>
+        <v>5.85722354508246</v>
       </c>
       <c r="AG11">
-        <v>-2.5877120489483</v>
+        <v>-141.6427764549175</v>
       </c>
       <c r="AH11">
-        <v>0.009609835667297657</v>
+        <v>0.01320809141016734</v>
       </c>
       <c r="AI11">
-        <v>0.004090469284561317</v>
+        <v>0.01065807761983128</v>
       </c>
       <c r="AJ11">
-        <v>-0.5322004938824294</v>
+        <v>-0.4785920571840391</v>
       </c>
       <c r="AK11">
-        <v>-0.1723729292553981</v>
+        <v>-0.3522950668713336</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AN11">
-        <v>-0</v>
+        <v>0.4513234634365186</v>
+      </c>
+      <c r="AO11">
+        <v>88.11320754716981</v>
       </c>
       <c r="AP11">
-        <v>2.30223491899315</v>
+        <v>-12.70908716508906</v>
+      </c>
+      <c r="AQ11">
+        <v>88.11320754716981</v>
       </c>
     </row>
     <row r="12">
@@ -1868,118 +1910,380 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Bangkok Union Insurance Public Company Limited (SET:BUI)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Insurance (Prop/Cas.)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.0941</v>
+      </c>
+      <c r="E12">
+        <v>-0.313</v>
+      </c>
+      <c r="G12">
+        <v>0.03933333333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.03933333333333333</v>
+      </c>
+      <c r="I12">
+        <v>0.01500602147663154</v>
+      </c>
+      <c r="J12">
+        <v>0.007503010738315771</v>
+      </c>
+      <c r="K12">
+        <v>0.17</v>
+      </c>
+      <c r="L12">
+        <v>0.005666666666666667</v>
+      </c>
+      <c r="M12">
+        <v>0.238</v>
+      </c>
+      <c r="N12">
+        <v>0.02245283018867925</v>
+      </c>
+      <c r="O12">
+        <v>1.4</v>
+      </c>
+      <c r="P12">
+        <v>0.238</v>
+      </c>
+      <c r="Q12">
+        <v>0.02245283018867925</v>
+      </c>
+      <c r="R12">
+        <v>1.4</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>4.73</v>
+      </c>
+      <c r="V12">
+        <v>0.4462264150943397</v>
+      </c>
+      <c r="W12">
+        <v>0.007264957264957266</v>
+      </c>
+      <c r="X12">
+        <v>0.05685756571168556</v>
+      </c>
+      <c r="Y12">
+        <v>-0.04959260844672829</v>
+      </c>
+      <c r="Z12">
+        <v>1.491120616908173</v>
+      </c>
+      <c r="AA12">
+        <v>0.01118789400078606</v>
+      </c>
+      <c r="AB12">
+        <v>0.05184441782755666</v>
+      </c>
+      <c r="AC12">
+        <v>-0.0406565238267706</v>
+      </c>
+      <c r="AD12">
+        <v>1.77</v>
+      </c>
+      <c r="AE12">
+        <v>0.3390967785052688</v>
+      </c>
+      <c r="AF12">
+        <v>2.109096778505269</v>
+      </c>
+      <c r="AG12">
+        <v>-2.620903221494732</v>
+      </c>
+      <c r="AH12">
+        <v>0.1659517442712654</v>
+      </c>
+      <c r="AI12">
+        <v>0.08784573605423963</v>
+      </c>
+      <c r="AJ12">
+        <v>-0.3284711658787159</v>
+      </c>
+      <c r="AK12">
+        <v>-0.1359453324813868</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1.539130434782609</v>
+      </c>
+      <c r="AP12">
+        <v>-2.279046279560637</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Indara Insurance Public Company Limited (SET:INSURE)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Insurance (Prop/Cas.)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>-0.158</v>
+      </c>
+      <c r="G13">
+        <v>0.05111788617886179</v>
+      </c>
+      <c r="H13">
+        <v>0.05111788617886179</v>
+      </c>
+      <c r="I13">
+        <v>-0.02588427469888163</v>
+      </c>
+      <c r="J13">
+        <v>-0.02588427469888163</v>
+      </c>
+      <c r="K13">
+        <v>-0.861</v>
+      </c>
+      <c r="L13">
+        <v>-0.08749999999999999</v>
+      </c>
+      <c r="M13">
+        <v>-0</v>
+      </c>
+      <c r="N13">
+        <v>-0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>-0</v>
+      </c>
+      <c r="Q13">
+        <v>-0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>2.54</v>
+      </c>
+      <c r="V13">
+        <v>0.1727891156462585</v>
+      </c>
+      <c r="W13">
+        <v>-0.150261780104712</v>
+      </c>
+      <c r="X13">
+        <v>0.05157848265957067</v>
+      </c>
+      <c r="Y13">
+        <v>-0.2018402627642827</v>
+      </c>
+      <c r="Z13">
+        <v>2.816654418865416</v>
+      </c>
+      <c r="AA13">
+        <v>-0.07290705670973123</v>
+      </c>
+      <c r="AB13">
+        <v>0.05085677632287727</v>
+      </c>
+      <c r="AC13">
+        <v>-0.1237638330326085</v>
+      </c>
+      <c r="AD13">
+        <v>0.347</v>
+      </c>
+      <c r="AE13">
+        <v>0.2135063151849762</v>
+      </c>
+      <c r="AF13">
+        <v>0.5605063151849762</v>
+      </c>
+      <c r="AG13">
+        <v>-1.979493684815024</v>
+      </c>
+      <c r="AH13">
+        <v>0.03672920829810503</v>
+      </c>
+      <c r="AI13">
+        <v>0.09954811944235642</v>
+      </c>
+      <c r="AJ13">
+        <v>-0.155614378529259</v>
+      </c>
+      <c r="AK13">
+        <v>-0.6405078918910234</v>
+      </c>
+      <c r="AL13">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AM13">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AN13">
+        <v>-1.845744680851064</v>
+      </c>
+      <c r="AO13">
+        <v>-37.33333333333334</v>
+      </c>
+      <c r="AP13">
+        <v>10.52922172773949</v>
+      </c>
+      <c r="AQ13">
+        <v>-37.33333333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>The Thai Setakij Insurance Public Company Limited (SET:TSI)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D12">
-        <v>-0.152</v>
-      </c>
-      <c r="G12">
-        <v>-0.205940594059406</v>
-      </c>
-      <c r="H12">
-        <v>-0.205940594059406</v>
-      </c>
-      <c r="I12">
-        <v>-0.4318253629655204</v>
-      </c>
-      <c r="J12">
-        <v>-0.4318253629655204</v>
-      </c>
-      <c r="K12">
-        <v>-0.8070000000000001</v>
-      </c>
-      <c r="L12">
-        <v>-0.0799009900990099</v>
-      </c>
-      <c r="M12">
+      <c r="D14">
+        <v>0.00258</v>
+      </c>
+      <c r="G14">
+        <v>-0.4085714285714286</v>
+      </c>
+      <c r="H14">
+        <v>-0.4085714285714286</v>
+      </c>
+      <c r="I14">
+        <v>-0.263662786242631</v>
+      </c>
+      <c r="J14">
+        <v>-0.263662786242631</v>
+      </c>
+      <c r="K14">
+        <v>-4.17</v>
+      </c>
+      <c r="L14">
+        <v>-0.2382857142857143</v>
+      </c>
+      <c r="M14">
         <v>-0</v>
       </c>
-      <c r="N12">
+      <c r="N14">
         <v>-0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>-0</v>
       </c>
-      <c r="Q12">
+      <c r="Q14">
         <v>-0</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0.951</v>
-      </c>
-      <c r="V12">
-        <v>0.02990566037735849</v>
-      </c>
-      <c r="W12">
-        <v>-0.154302103250478</v>
-      </c>
-      <c r="X12">
-        <v>0.0558610163471577</v>
-      </c>
-      <c r="Y12">
-        <v>-0.2101631195976357</v>
-      </c>
-      <c r="Z12">
-        <v>2.446005737314734</v>
-      </c>
-      <c r="AA12">
-        <v>-1.05624731533168</v>
-      </c>
-      <c r="AB12">
-        <v>0.05429340602100056</v>
-      </c>
-      <c r="AC12">
-        <v>-1.110540721352681</v>
-      </c>
-      <c r="AD12">
-        <v>2.94</v>
-      </c>
-      <c r="AE12">
-        <v>0.1271808297587835</v>
-      </c>
-      <c r="AF12">
-        <v>3.067180829758783</v>
-      </c>
-      <c r="AG12">
-        <v>2.116180829758783</v>
-      </c>
-      <c r="AH12">
-        <v>0.08796756023191228</v>
-      </c>
-      <c r="AI12">
-        <v>0.3964209829453355</v>
-      </c>
-      <c r="AJ12">
-        <v>0.06239443174279814</v>
-      </c>
-      <c r="AK12">
-        <v>0.3118367875608177</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0.03164897625250285</v>
-      </c>
-      <c r="AP12">
-        <v>0.02278059756021684</v>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>5.99</v>
+      </c>
+      <c r="V14">
+        <v>0.3384180790960452</v>
+      </c>
+      <c r="W14">
+        <v>-0.8929336188436831</v>
+      </c>
+      <c r="X14">
+        <v>0.05249748468130341</v>
+      </c>
+      <c r="Y14">
+        <v>-0.9454311035249865</v>
+      </c>
+      <c r="Z14">
+        <v>2.305819132323748</v>
+      </c>
+      <c r="AA14">
+        <v>-0.607958697000045</v>
+      </c>
+      <c r="AB14">
+        <v>0.05089416807455628</v>
+      </c>
+      <c r="AC14">
+        <v>-0.6588528650746013</v>
+      </c>
+      <c r="AD14">
+        <v>0.24</v>
+      </c>
+      <c r="AE14">
+        <v>0.930493796230206</v>
+      </c>
+      <c r="AF14">
+        <v>1.170493796230206</v>
+      </c>
+      <c r="AG14">
+        <v>-4.819506203769794</v>
+      </c>
+      <c r="AH14">
+        <v>0.06202772481046774</v>
+      </c>
+      <c r="AI14">
+        <v>0.07422049121315415</v>
+      </c>
+      <c r="AJ14">
+        <v>-0.3741709192220831</v>
+      </c>
+      <c r="AK14">
+        <v>-0.492767165357993</v>
+      </c>
+      <c r="AL14">
+        <v>0.013</v>
+      </c>
+      <c r="AM14">
+        <v>0.013</v>
+      </c>
+      <c r="AN14">
+        <v>-0.05649717514124293</v>
+      </c>
+      <c r="AO14">
+        <v>-372.3076923076923</v>
+      </c>
+      <c r="AP14">
+        <v>1.134535358702871</v>
+      </c>
+      <c r="AQ14">
+        <v>-372.3076923076923</v>
       </c>
     </row>
   </sheetData>
